--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H2">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I2">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J2">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.86234577458601</v>
+        <v>86.09667233333334</v>
       </c>
       <c r="N2">
-        <v>4.86234577458601</v>
+        <v>258.290017</v>
       </c>
       <c r="O2">
-        <v>0.8044897304857596</v>
+        <v>0.9236051571299395</v>
       </c>
       <c r="P2">
-        <v>0.8044897304857596</v>
+        <v>0.9236051571299394</v>
       </c>
       <c r="Q2">
-        <v>28.74164020232338</v>
+        <v>563.0729832311604</v>
       </c>
       <c r="R2">
-        <v>28.74164020232338</v>
+        <v>5067.656849080444</v>
       </c>
       <c r="S2">
-        <v>0.1788900887684619</v>
+        <v>0.2184517863528418</v>
       </c>
       <c r="T2">
-        <v>0.1788900887684619</v>
+        <v>0.2184517863528418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.91106464549418</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H3">
-        <v>5.91106464549418</v>
+        <v>19.620026</v>
       </c>
       <c r="I3">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J3">
-        <v>0.2223646641958327</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.1816664611576</v>
+        <v>4.911922333333334</v>
       </c>
       <c r="N3">
-        <v>1.1816664611576</v>
+        <v>14.735767</v>
       </c>
       <c r="O3">
-        <v>0.1955102695142404</v>
+        <v>0.05269282395635592</v>
       </c>
       <c r="P3">
-        <v>0.1955102695142404</v>
+        <v>0.05269282395635591</v>
       </c>
       <c r="Q3">
-        <v>6.984906841314912</v>
+        <v>32.12401462999357</v>
       </c>
       <c r="R3">
-        <v>6.984906841314912</v>
+        <v>289.116131669942</v>
       </c>
       <c r="S3">
-        <v>0.04347457542737082</v>
+        <v>0.01246294634929408</v>
       </c>
       <c r="T3">
-        <v>0.04347457542737082</v>
+        <v>0.01246294634929408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.5534132248221</v>
+        <v>6.540008666666668</v>
       </c>
       <c r="H4">
-        <v>14.5534132248221</v>
+        <v>19.620026</v>
       </c>
       <c r="I4">
-        <v>0.5474757998303376</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="J4">
-        <v>0.5474757998303376</v>
+        <v>0.2365207520404831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.86234577458601</v>
+        <v>2.209456</v>
       </c>
       <c r="N4">
-        <v>4.86234577458601</v>
+        <v>6.628368</v>
       </c>
       <c r="O4">
-        <v>0.8044897304857596</v>
+        <v>0.02370201891370452</v>
       </c>
       <c r="P4">
-        <v>0.8044897304857596</v>
+        <v>0.02370201891370452</v>
       </c>
       <c r="Q4">
-        <v>70.7637272995179</v>
+        <v>14.44986138861867</v>
       </c>
       <c r="R4">
-        <v>70.7637272995179</v>
+        <v>130.048752497568</v>
       </c>
       <c r="S4">
-        <v>0.4404386586529839</v>
+        <v>0.005606019338347147</v>
       </c>
       <c r="T4">
-        <v>0.4404386586529839</v>
+        <v>0.005606019338347147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.5534132248221</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H5">
-        <v>14.5534132248221</v>
+        <v>44.024573</v>
       </c>
       <c r="I5">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J5">
-        <v>0.5474757998303376</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.1816664611576</v>
+        <v>86.09667233333334</v>
       </c>
       <c r="N5">
-        <v>1.1816664611576</v>
+        <v>258.290017</v>
       </c>
       <c r="O5">
-        <v>0.1955102695142404</v>
+        <v>0.9236051571299395</v>
       </c>
       <c r="P5">
-        <v>0.1955102695142404</v>
+        <v>0.9236051571299394</v>
       </c>
       <c r="Q5">
-        <v>17.19728030313975</v>
+        <v>1263.456412065305</v>
       </c>
       <c r="R5">
-        <v>17.19728030313975</v>
+        <v>11371.10770858774</v>
       </c>
       <c r="S5">
-        <v>0.1070371411773536</v>
+        <v>0.4901750188950355</v>
       </c>
       <c r="T5">
-        <v>0.1070371411773536</v>
+        <v>0.4901750188950355</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.11827378616277</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H6">
-        <v>6.11827378616277</v>
+        <v>44.024573</v>
       </c>
       <c r="I6">
-        <v>0.2301595359738297</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J6">
-        <v>0.2301595359738297</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.86234577458601</v>
+        <v>4.911922333333334</v>
       </c>
       <c r="N6">
-        <v>4.86234577458601</v>
+        <v>14.735767</v>
       </c>
       <c r="O6">
-        <v>0.8044897304857596</v>
+        <v>0.05269282395635592</v>
       </c>
       <c r="P6">
-        <v>0.8044897304857596</v>
+        <v>0.05269282395635591</v>
       </c>
       <c r="Q6">
-        <v>29.74916269190889</v>
+        <v>72.08176111138791</v>
       </c>
       <c r="R6">
-        <v>29.74916269190889</v>
+        <v>648.7358500024911</v>
       </c>
       <c r="S6">
-        <v>0.1851609830643137</v>
+        <v>0.02796509501820134</v>
       </c>
       <c r="T6">
-        <v>0.1851609830643137</v>
+        <v>0.02796509501820134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.11827378616277</v>
+        <v>14.67485766666667</v>
       </c>
       <c r="H7">
-        <v>6.11827378616277</v>
+        <v>44.024573</v>
       </c>
       <c r="I7">
-        <v>0.2301595359738297</v>
+        <v>0.5307192311682535</v>
       </c>
       <c r="J7">
-        <v>0.2301595359738297</v>
+        <v>0.5307192311682536</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1816664611576</v>
+        <v>2.209456</v>
       </c>
       <c r="N7">
-        <v>1.1816664611576</v>
+        <v>6.628368</v>
       </c>
       <c r="O7">
-        <v>0.1955102695142404</v>
+        <v>0.02370201891370452</v>
       </c>
       <c r="P7">
-        <v>0.1955102695142404</v>
+        <v>0.02370201891370452</v>
       </c>
       <c r="Q7">
-        <v>7.229758933288271</v>
+        <v>32.42345232076267</v>
       </c>
       <c r="R7">
-        <v>7.229758933288271</v>
+        <v>291.811070886864</v>
       </c>
       <c r="S7">
-        <v>0.04499855290951595</v>
+        <v>0.01257911725501666</v>
       </c>
       <c r="T7">
-        <v>0.04499855290951595</v>
+        <v>0.01257911725501667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.436020999999999</v>
+      </c>
+      <c r="H8">
+        <v>19.308063</v>
+      </c>
+      <c r="I8">
+        <v>0.2327600167912634</v>
+      </c>
+      <c r="J8">
+        <v>0.2327600167912634</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>86.09667233333334</v>
+      </c>
+      <c r="N8">
+        <v>258.290017</v>
+      </c>
+      <c r="O8">
+        <v>0.9236051571299395</v>
+      </c>
+      <c r="P8">
+        <v>0.9236051571299394</v>
+      </c>
+      <c r="Q8">
+        <v>554.1199911674523</v>
+      </c>
+      <c r="R8">
+        <v>4987.079920507071</v>
+      </c>
+      <c r="S8">
+        <v>0.2149783518820622</v>
+      </c>
+      <c r="T8">
+        <v>0.2149783518820621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.436020999999999</v>
+      </c>
+      <c r="H9">
+        <v>19.308063</v>
+      </c>
+      <c r="I9">
+        <v>0.2327600167912634</v>
+      </c>
+      <c r="J9">
+        <v>0.2327600167912634</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.911922333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.735767</v>
+      </c>
+      <c r="O9">
+        <v>0.05269282395635592</v>
+      </c>
+      <c r="P9">
+        <v>0.05269282395635591</v>
+      </c>
+      <c r="Q9">
+        <v>31.61323528770233</v>
+      </c>
+      <c r="R9">
+        <v>284.519117589321</v>
+      </c>
+      <c r="S9">
+        <v>0.01226478258886049</v>
+      </c>
+      <c r="T9">
+        <v>0.01226478258886049</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.436020999999999</v>
+      </c>
+      <c r="H10">
+        <v>19.308063</v>
+      </c>
+      <c r="I10">
+        <v>0.2327600167912634</v>
+      </c>
+      <c r="J10">
+        <v>0.2327600167912634</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.209456</v>
+      </c>
+      <c r="N10">
+        <v>6.628368</v>
+      </c>
+      <c r="O10">
+        <v>0.02370201891370452</v>
+      </c>
+      <c r="P10">
+        <v>0.02370201891370452</v>
+      </c>
+      <c r="Q10">
+        <v>14.220105214576</v>
+      </c>
+      <c r="R10">
+        <v>127.980946931184</v>
+      </c>
+      <c r="S10">
+        <v>0.005516882320340706</v>
+      </c>
+      <c r="T10">
+        <v>0.005516882320340706</v>
       </c>
     </row>
   </sheetData>
